--- a/Selenium/Bugs/data/genre/클래식.xlsx
+++ b/Selenium/Bugs/data/genre/클래식.xlsx
@@ -28,7 +28,7 @@
     <t>Jingle Bells</t>
   </si>
   <si>
-    <t>White Christmas</t>
+    <t xml:space="preserve">White Christmas </t>
   </si>
   <si>
     <t>The First Nowell</t>
@@ -55,7 +55,7 @@
     <t>Have Yourself a Merry Little Christmas</t>
   </si>
   <si>
-    <t>Silent Night, H. 145a-g</t>
+    <t xml:space="preserve">Silent Night, H. 145a-g </t>
   </si>
   <si>
     <t>Pavarotti, Benvenuti: Ave Maria, dolce Maria (Live)</t>
@@ -199,28 +199,28 @@
     <t>Tchaikovsky: The Seasons Op.37b - XII. December 'Christmas' (차이코프스키: 사계 Op.37b - XII. 12월 '성탄절')</t>
   </si>
   <si>
-    <t>"Sibelius : Finlandia, Op. 26"</t>
+    <t xml:space="preserve">"Sibelius : Finlandia, Op. 26" </t>
   </si>
   <si>
     <t>Violin Concerto in D Minor, Op.47: I. Allegro moderato</t>
   </si>
   <si>
-    <t>The Nutcracker, Op. 71a: II. a. March</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71a: II. b. Dance of the sugarplum fairy</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71a: II. c. Russian dance</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71a: II. d. Arabian dance</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71a: II. e. Chinese dance</t>
-  </si>
-  <si>
-    <t>The Nutcracker, Op. 71a: II. f. Dance of the reed flutes</t>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. a. March </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. b. Dance of the sugarplum fairy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. c. Russian dance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. d. Arabian dance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. e. Chinese dance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nutcracker, Op. 71a: II. f. Dance of the reed flutes </t>
   </si>
   <si>
     <t>Satie: Trois Gymnopedies No.1</t>
@@ -256,7 +256,7 @@
     <t>J.S. Bach: French Suite No. 5 in G Major, BWV 816 - III. Sarabande</t>
   </si>
   <si>
-    <t>Lyric Pieces, Book 9, Op. 68: No. 3. At your Feet</t>
+    <t xml:space="preserve">Lyric Pieces, Book 9, Op. 68: No. 3. At your Feet </t>
   </si>
   <si>
     <t>Schumann: Kinderszenen, Op. 15 - 12. Kind im Einschlummern</t>
@@ -604,7 +604,7 @@
     <t>Debussy: String Quartet In G Minor, Op.10, L. 85 - 3. Andantino doucement expressif</t>
   </si>
   <si>
-    <t>"Tchaikovsky : 18 Morceaux, Op. 72 - No. 5. Meditation"</t>
+    <t xml:space="preserve">"Tchaikovsky : 18 Morceaux, Op. 72 - No. 5. Meditation" </t>
   </si>
   <si>
     <t>Liszt: Années de pèlerinage - Première année, Suisse, S.160: VIII. Le mal du pays (Heimweh)</t>
@@ -715,25 +715,25 @@
     <t>Rachmaninov: Piano Concerto No.2 In C Minor, Op.18 - 1. Moderato (With Academic Symphony Orchestra Of The St. Petersburg Philharmonic)</t>
   </si>
   <si>
-    <t>Gayane, Act III: Sabre Dance</t>
-  </si>
-  <si>
-    <t>Piano Sonata No. 11 in A Major, K. 331: Piano Sonata No. 11 in A Major, K. 331: III. Rondo alla turca</t>
-  </si>
-  <si>
-    <t>Violin Concerto No. 2 in B Minor, Op. 7, MS 48: III. Rondo a la clochette, " La campanella"</t>
+    <t xml:space="preserve">Gayane, Act III: Sabre Dance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piano Sonata No. 11 in A Major, K. 331: Piano Sonata No. 11 in A Major, K. 331: III. Rondo alla turca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violin Concerto No. 2 in B Minor, Op. 7, MS 48: III. Rondo a la clochette, " La campanella" </t>
   </si>
   <si>
     <t>Bach: Orchestral Suite No.3 In D Major BWV 1068 - II. Air On A G String (바흐: 관현악 모음곡 3번 라장조 BWV 1068 - 2. G선상의 아리아)</t>
   </si>
   <si>
-    <t>"Mendelssohn : Lieder Ohne Worte (Songs Without Words), Book 5, Op. 62 - No. 30 In A Major, Op. 62, No. 6, ""Fruhlingslied"""</t>
+    <t xml:space="preserve">"Mendelssohn : Lieder Ohne Worte (Songs Without Words), Book 5, Op. 62 - No. 30 In A Major, Op. 62, No. 6, ""Fruhlingslied""" </t>
   </si>
   <si>
     <t>Brahms: 21 Hungarian Dances, Woo 1: No. 5 In F-Sharp Minor (Arr. For Orchestra)</t>
   </si>
   <si>
-    <t>Cello Suite No. 1 in G Major, BWV 1007: Cello Suite No. 1 in G Major, BWV 1007: Prelude</t>
+    <t xml:space="preserve">Cello Suite No. 1 in G Major, BWV 1007: Cello Suite No. 1 in G Major, BWV 1007: Prelude </t>
   </si>
   <si>
     <t>Bizet: Carmen - Prelude (비제: 카르멘 - 전주곡)</t>
@@ -826,7 +826,7 @@
     <t>Massenet: Thais - Act II - Meditation (마스네: 타이스 - 2막 - 명상곡)</t>
   </si>
   <si>
-    <t>Park : Love Gone With Autumn Behind</t>
+    <t xml:space="preserve">Park : Love Gone With Autumn Behind </t>
   </si>
   <si>
     <t>Boccherini: String Quintet In E Major, Op. 11, No. 5, G. 275: III. Minuetto (Arr. For Orchestra)</t>
@@ -853,7 +853,7 @@
     <t>Mchugh: I'm In The Mood For Love</t>
   </si>
   <si>
-    <t>"Tchaikovsky : Souvenir D'Un Lieu Cher, Op. 42 (Arr. A.K. Glazunov For Violin And Orchestra) - Souvenir D'Un Lieu Cher, Op. 42 : III. Melodie (Arr. A.K. Glazunov For Violin And Orchestra)"</t>
+    <t xml:space="preserve">"Tchaikovsky : Souvenir D'Un Lieu Cher, Op. 42 (Arr. A.K. Glazunov For Violin And Orchestra) - Souvenir D'Un Lieu Cher, Op. 42 : III. Melodie (Arr. A.K. Glazunov For Violin And Orchestra)" </t>
   </si>
   <si>
     <t>Rachmaninov: Piano Concerto No.2 In C Minor, Op.18 - Ii. Adagio Sostenuto (라흐마니노프: 피아노 협주곡 2번 C단조 - 2악장)</t>
@@ -862,7 +862,7 @@
     <t>Mozart: Serenade No. 13 In G Major, K. 525, "Eine Kleine Nachtmusik" - II. Romanze</t>
   </si>
   <si>
-    <t>"Sibelius : Scaramouche, Op. 71 : Act II : Scene D'Amour (Version For Violin And Piano) - Scaramouche, Op. 71 : Scene D'Amour"</t>
+    <t xml:space="preserve">"Sibelius : Scaramouche, Op. 71 : Act II : Scene D'Amour (Version For Violin And Piano) - Scaramouche, Op. 71 : Scene D'Amour" </t>
   </si>
   <si>
     <t>Beethoven: Bagatelle In A Minor "Fur Elise", WoO 59 (베토벤: 엘리제를 위하여)</t>
